--- a/Extreme Networks Transaction Comps.xlsx
+++ b/Extreme Networks Transaction Comps.xlsx
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
   <si>
     <t>EBITDA</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>Extreme 8K/A</t>
+  </si>
+  <si>
+    <t>3Com 10-Q</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +2903,7 @@
     <xf numFmtId="1" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="243" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3322,6 +3325,7 @@
     <xf numFmtId="188" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="$" xfId="34"/>
@@ -4284,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IT288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -4935,7 +4939,10 @@
         <v>144.90464800000001</v>
       </c>
       <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="F33" s="43">
+        <f>((((((394780516-1104582)/10)/10)/10)/10)/10)/10</f>
+        <v>393.67593399999998</v>
+      </c>
       <c r="G33" s="43"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -4958,7 +4965,7 @@
       </c>
       <c r="F34" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>393.67593399999998</v>
       </c>
       <c r="G34" s="71">
         <f t="shared" si="4"/>
@@ -5004,7 +5011,9 @@
         <v>29.803256999999995</v>
       </c>
       <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="F37" s="213">
+        <v>23.832999999999998</v>
+      </c>
       <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
@@ -5244,8 +5253,8 @@
         <v>0</v>
       </c>
       <c r="F51" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>SUM(F37:F50)</f>
+        <v>23.832999999999998</v>
       </c>
       <c r="G51" s="24">
         <f t="shared" si="6"/>
@@ -5299,8 +5308,10 @@
       <c r="D53" s="214">
         <v>16.28</v>
       </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
+      <c r="E53" s="214"/>
+      <c r="F53" s="214">
+        <v>5.05</v>
+      </c>
       <c r="G53" s="79"/>
       <c r="H53" s="79"/>
       <c r="I53" s="79"/>
@@ -5544,8 +5555,8 @@
         <v>0</v>
       </c>
       <c r="F68" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SUMPRODUCT((F53:F66&lt;F19)*(F53:F66),F37:F50)</f>
+        <v>120.35664999999999</v>
       </c>
       <c r="G68" s="81">
         <f t="shared" si="8"/>
@@ -5590,8 +5601,8 @@
         <v>0</v>
       </c>
       <c r="F69" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUMIF(F53:F66,"&lt;"&amp;F19,F37:F50)</f>
+        <v>23.832999999999998</v>
       </c>
       <c r="G69" s="81">
         <f t="shared" si="9"/>
@@ -5637,7 +5648,7 @@
       </c>
       <c r="F70" s="82">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.597981012658229</v>
       </c>
       <c r="G70" s="82">
         <f t="shared" si="10"/>
@@ -5696,7 +5707,10 @@
         <v>2.0169999999999999</v>
       </c>
       <c r="E72" s="212"/>
-      <c r="F72" s="212"/>
+      <c r="F72" s="223">
+        <f>((((((1104582+10451425)/10)/10)/10)/10)/10)/10</f>
+        <v>11.556006999999999</v>
+      </c>
       <c r="G72" s="212"/>
       <c r="H72" s="212"/>
       <c r="I72" s="26"/>
@@ -5719,7 +5733,7 @@
       </c>
       <c r="F73" s="73">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>413.82992201265819</v>
       </c>
       <c r="G73" s="73">
         <f t="shared" ref="G73:H73" si="12">G34+SUM(G70:G72)</f>
@@ -5793,7 +5807,7 @@
       </c>
       <c r="F76" s="200">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3269.2563838999999</v>
       </c>
       <c r="G76" s="200">
         <f t="shared" si="13"/>
@@ -5857,7 +5871,7 @@
       </c>
       <c r="F78" s="201">
         <f t="shared" ref="F78:M78" si="15">IF(F77,F77,F76)</f>
-        <v>0</v>
+        <v>3269.2563838999999</v>
       </c>
       <c r="G78" s="201">
         <f t="shared" si="15"/>
@@ -5929,7 +5943,9 @@
       <c r="E81" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F81" s="30"/>
+      <c r="F81" s="30" t="s">
+        <v>159</v>
+      </c>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
@@ -5949,7 +5965,9 @@
       <c r="E82" s="30">
         <v>41547</v>
       </c>
-      <c r="F82" s="30"/>
+      <c r="F82" s="30">
+        <v>42978</v>
+      </c>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
@@ -5983,7 +6001,9 @@
       <c r="E84" s="219">
         <v>0</v>
       </c>
-      <c r="F84" s="10"/>
+      <c r="F84" s="219">
+        <v>88</v>
+      </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -6003,7 +6023,9 @@
       <c r="E85" s="219">
         <v>0</v>
       </c>
-      <c r="F85" s="10"/>
+      <c r="F85" s="219">
+        <v>112</v>
+      </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -6058,7 +6080,7 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="27">
-        <f t="shared" ref="D88:G89" si="16">SUM(D84:D87)</f>
+        <f t="shared" ref="D88:G88" si="16">SUM(D84:D87)</f>
         <v>0</v>
       </c>
       <c r="E88" s="27">
@@ -6067,7 +6089,7 @@
       </c>
       <c r="F88" s="27">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G88" s="27">
         <f t="shared" si="16"/>
@@ -6110,7 +6132,10 @@
       <c r="E89" s="220">
         <v>-38.700000000000003</v>
       </c>
-      <c r="F89" s="29"/>
+      <c r="F89" s="220">
+        <f>(((-(625908+39915+24860))/10)/10)/10</f>
+        <v>-690.68299999999999</v>
+      </c>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
@@ -6132,9 +6157,9 @@
         <f t="shared" si="18"/>
         <v>-38.700000000000003</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F90" s="221">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-490.68299999999999</v>
       </c>
       <c r="G90" s="27">
         <f t="shared" si="18"/>
@@ -6194,7 +6219,7 @@
       </c>
       <c r="F92" s="203">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2778.5733839</v>
       </c>
       <c r="G92" s="203">
         <f t="shared" si="20"/>
@@ -6312,7 +6337,9 @@
       <c r="E98" s="42">
         <v>332.899</v>
       </c>
-      <c r="F98" s="42"/>
+      <c r="F98" s="42">
+        <v>1316.9780000000001</v>
+      </c>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
       <c r="I98" s="42"/>
@@ -6332,7 +6359,9 @@
       <c r="E99" s="43">
         <v>-155.65700000000001</v>
       </c>
-      <c r="F99" s="43"/>
+      <c r="F99" s="43">
+        <v>-565.51400000000001</v>
+      </c>
       <c r="G99" s="43"/>
       <c r="H99" s="43"/>
       <c r="I99" s="43"/>
@@ -6356,7 +6385,7 @@
       </c>
       <c r="F100" s="33">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>751.46400000000006</v>
       </c>
       <c r="G100" s="33">
         <f t="shared" si="22"/>
@@ -6398,7 +6427,9 @@
       <c r="E101" s="44">
         <v>-173.52099999999999</v>
       </c>
-      <c r="F101" s="44"/>
+      <c r="F101" s="44">
+        <v>-650.77199999999993</v>
+      </c>
       <c r="G101" s="44"/>
       <c r="H101" s="44"/>
       <c r="I101" s="44"/>
@@ -6422,7 +6453,7 @@
       </c>
       <c r="F102" s="45">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>100.69200000000012</v>
       </c>
       <c r="G102" s="45">
         <f t="shared" si="24"/>
@@ -6464,7 +6495,9 @@
       <c r="E103" s="46">
         <v>-8.6379999999999999</v>
       </c>
-      <c r="F103" s="46"/>
+      <c r="F103" s="46">
+        <v>-5.5629999999999997</v>
+      </c>
       <c r="G103" s="46"/>
       <c r="H103" s="46"/>
       <c r="I103" s="46"/>
@@ -6484,7 +6517,9 @@
       <c r="E104" s="47">
         <v>5.1950000000000003</v>
       </c>
-      <c r="F104" s="47"/>
+      <c r="F104" s="47">
+        <v>52.2</v>
+      </c>
       <c r="G104" s="47"/>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
@@ -6508,7 +6543,7 @@
       </c>
       <c r="F105" s="33">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>147.32900000000012</v>
       </c>
       <c r="G105" s="33">
         <f t="shared" si="26"/>
@@ -6550,7 +6585,9 @@
       <c r="E106" s="46">
         <v>-0.39700000000000002</v>
       </c>
-      <c r="F106" s="46"/>
+      <c r="F106" s="46">
+        <v>-32.603999999999999</v>
+      </c>
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
       <c r="I106" s="46"/>
@@ -6574,7 +6611,7 @@
       </c>
       <c r="F107" s="33">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>114.72500000000012</v>
       </c>
       <c r="G107" s="33">
         <f t="shared" si="29"/>
@@ -6614,7 +6651,9 @@
         <v>155.52000000000001</v>
       </c>
       <c r="E108" s="46"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="46">
+        <v>394.20699999999999</v>
+      </c>
       <c r="G108" s="46"/>
       <c r="H108" s="46"/>
       <c r="I108" s="46"/>
@@ -6636,9 +6675,9 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F109" s="48" t="str">
+      <c r="F109" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.29102730291445894</v>
       </c>
       <c r="G109" s="48" t="str">
         <f t="shared" si="31"/>
@@ -6714,7 +6753,9 @@
         <f>(((454+773)/10)/10)/10</f>
         <v>1.2269999999999999</v>
       </c>
-      <c r="F112" s="46"/>
+      <c r="F112" s="46">
+        <v>3.028</v>
+      </c>
       <c r="G112" s="46"/>
       <c r="H112" s="46"/>
       <c r="I112" s="46"/>
@@ -6737,7 +6778,10 @@
         <f>(((3338+3992+856+8021)/10)/10)/10</f>
         <v>16.207000000000001</v>
       </c>
-      <c r="F113" s="46"/>
+      <c r="F113" s="46">
+        <f>(((8679+95013-85200+800+2400+1150-2600+29636-3028)/10)/10)/10</f>
+        <v>46.85</v>
+      </c>
       <c r="G113" s="46"/>
       <c r="H113" s="46"/>
       <c r="I113" s="46"/>
@@ -6790,7 +6834,9 @@
         <v>-21.533999999999999</v>
       </c>
       <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="46">
+        <v>12.083</v>
+      </c>
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
       <c r="I116" s="46"/>
@@ -6846,7 +6892,7 @@
       </c>
       <c r="F119" s="92">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>150.57000000000014</v>
       </c>
       <c r="G119" s="92">
         <f t="shared" si="33"/>
@@ -6889,7 +6935,10 @@
         <f>(((-8021+13154)/10)/10)/10</f>
         <v>5.133</v>
       </c>
-      <c r="F120" s="47"/>
+      <c r="F120" s="47">
+        <f>(((124794-95013)/10)/10)/10</f>
+        <v>29.780999999999999</v>
+      </c>
       <c r="G120" s="47"/>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
@@ -6914,7 +6963,7 @@
       </c>
       <c r="F121" s="85">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>180.35100000000014</v>
       </c>
       <c r="G121" s="85">
         <f t="shared" si="35"/>
@@ -7202,7 +7251,7 @@
       </c>
       <c r="F122" s="85">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>197.20700000000011</v>
       </c>
       <c r="G122" s="85">
         <f t="shared" si="37"/>
@@ -7490,7 +7539,7 @@
       </c>
       <c r="F123" s="85">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-20.521000000000001</v>
       </c>
       <c r="G123" s="85">
         <f t="shared" si="39"/>
@@ -7778,7 +7827,7 @@
       </c>
       <c r="F124" s="85">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>176.68600000000009</v>
       </c>
       <c r="G124" s="85">
         <f t="shared" si="41"/>
@@ -9096,7 +9145,7 @@
       </c>
       <c r="F129" s="48">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.44820614550223636</v>
       </c>
       <c r="G129" s="48">
         <f t="shared" si="43"/>
@@ -9892,7 +9941,9 @@
         <v>39629</v>
       </c>
       <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
+      <c r="F132" s="67">
+        <v>40056</v>
+      </c>
       <c r="G132" s="67"/>
       <c r="H132" s="67"/>
       <c r="I132" s="67"/>
@@ -10151,7 +10202,9 @@
         <v>310.73399999999998</v>
       </c>
       <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
+      <c r="F133" s="42">
+        <v>290.50200000000001</v>
+      </c>
       <c r="G133" s="42"/>
       <c r="H133" s="42"/>
       <c r="I133" s="42"/>
@@ -10169,7 +10222,9 @@
         <v>-115.785</v>
       </c>
       <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="43">
+        <v>-123.931</v>
+      </c>
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
@@ -10193,7 +10248,7 @@
       </c>
       <c r="F135" s="33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>166.57100000000003</v>
       </c>
       <c r="G135" s="33">
         <f t="shared" si="45"/>
@@ -10233,7 +10288,9 @@
         <v>-159.22399999999999</v>
       </c>
       <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
+      <c r="F136" s="44">
+        <v>-163.32999999999998</v>
+      </c>
       <c r="G136" s="44"/>
       <c r="H136" s="44"/>
       <c r="I136" s="44"/>
@@ -10257,7 +10314,7 @@
       </c>
       <c r="F137" s="45">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>3.2410000000000423</v>
       </c>
       <c r="G137" s="45">
         <f t="shared" si="47"/>
@@ -10297,7 +10354,9 @@
         <v>0</v>
       </c>
       <c r="E138" s="46"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="46">
+        <v>-1.0879999999999999</v>
+      </c>
       <c r="G138" s="46"/>
       <c r="H138" s="46"/>
       <c r="I138" s="46"/>
@@ -10315,7 +10374,9 @@
         <v>15.728</v>
       </c>
       <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
+      <c r="F139" s="47">
+        <v>11.547000000000001</v>
+      </c>
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
@@ -10339,7 +10400,7 @@
       </c>
       <c r="F140" s="33">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>13.700000000000042</v>
       </c>
       <c r="G140" s="33">
         <f t="shared" si="49"/>
@@ -10379,7 +10440,9 @@
         <v>-19.220999999999997</v>
       </c>
       <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="46">
+        <v>-6.2389999999999999</v>
+      </c>
       <c r="G141" s="46"/>
       <c r="H141" s="46"/>
       <c r="I141" s="46"/>
@@ -10403,7 +10466,7 @@
       </c>
       <c r="F142" s="33">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.461000000000042</v>
       </c>
       <c r="G142" s="33">
         <f t="shared" si="51"/>
@@ -10443,7 +10506,9 @@
         <v>150.21899999999999</v>
       </c>
       <c r="E143" s="46"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="46">
+        <v>396.26599999999996</v>
+      </c>
       <c r="G143" s="46"/>
       <c r="H143" s="46"/>
       <c r="I143" s="46"/>
@@ -10465,9 +10530,9 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="F144" s="48" t="str">
+      <c r="F144" s="48">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.8828261824128344E-2</v>
       </c>
       <c r="G144" s="48" t="str">
         <f t="shared" si="53"/>
@@ -10540,7 +10605,9 @@
         <v>2.6269999999999998</v>
       </c>
       <c r="E147" s="46"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="46">
+        <v>0.54</v>
+      </c>
       <c r="G147" s="46"/>
       <c r="H147" s="46"/>
       <c r="I147" s="46"/>
@@ -10560,7 +10627,9 @@
         <v>22.530999999999999</v>
       </c>
       <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="46">
+        <v>22.548999999999999</v>
+      </c>
       <c r="G148" s="46"/>
       <c r="H148" s="46"/>
       <c r="I148" s="46"/>
@@ -10667,7 +10736,7 @@
       </c>
       <c r="F154" s="33">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>26.330000000000041</v>
       </c>
       <c r="G154" s="33">
         <f t="shared" si="55"/>
@@ -10707,7 +10776,9 @@
         <v>5.1289999999999996</v>
       </c>
       <c r="E155" s="47"/>
-      <c r="F155" s="47"/>
+      <c r="F155" s="47">
+        <v>4.5860000000000003</v>
+      </c>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
@@ -10731,7 +10802,7 @@
       </c>
       <c r="F156" s="85">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>30.916000000000039</v>
       </c>
       <c r="G156" s="85">
         <f t="shared" si="57"/>
@@ -10777,7 +10848,7 @@
       </c>
       <c r="F157" s="85">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>36.789000000000044</v>
       </c>
       <c r="G157" s="85">
         <f t="shared" si="59"/>
@@ -10823,7 +10894,7 @@
       </c>
       <c r="F158" s="85">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-6.2389999999999999</v>
       </c>
       <c r="G158" s="85">
         <f t="shared" si="61"/>
@@ -10869,7 +10940,7 @@
       </c>
       <c r="F159" s="85">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>30.550000000000043</v>
       </c>
       <c r="G159" s="85">
         <f t="shared" si="63"/>
@@ -10977,7 +11048,7 @@
       </c>
       <c r="F164" s="48">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>7.7094678826848742E-2</v>
       </c>
       <c r="G164" s="48">
         <f t="shared" si="65"/>
@@ -11290,7 +11361,9 @@
         <v>39263</v>
       </c>
       <c r="E167" s="67"/>
-      <c r="F167" s="67"/>
+      <c r="F167" s="67">
+        <v>39691</v>
+      </c>
       <c r="G167" s="67"/>
       <c r="H167" s="67"/>
       <c r="I167" s="67"/>
@@ -11549,7 +11622,9 @@
         <v>279.053</v>
       </c>
       <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
+      <c r="F168" s="42">
+        <v>342.65</v>
+      </c>
       <c r="G168" s="42"/>
       <c r="H168" s="42"/>
       <c r="I168" s="42"/>
@@ -11567,7 +11642,9 @@
         <v>-113.742</v>
       </c>
       <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
+      <c r="F169" s="43">
+        <v>-152.023</v>
+      </c>
       <c r="G169" s="43"/>
       <c r="H169" s="43"/>
       <c r="I169" s="43"/>
@@ -11591,7 +11668,7 @@
       </c>
       <c r="F170" s="33">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>190.62699999999998</v>
       </c>
       <c r="G170" s="33">
         <f t="shared" si="67"/>
@@ -11631,7 +11708,9 @@
         <v>-145.96700000000001</v>
       </c>
       <c r="E171" s="44"/>
-      <c r="F171" s="44"/>
+      <c r="F171" s="44">
+        <v>-116.244</v>
+      </c>
       <c r="G171" s="44"/>
       <c r="H171" s="44"/>
       <c r="I171" s="44"/>
@@ -11655,7 +11734,7 @@
       </c>
       <c r="F172" s="45">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>74.382999999999981</v>
       </c>
       <c r="G172" s="45">
         <f t="shared" si="69"/>
@@ -11695,7 +11774,9 @@
         <v>0</v>
       </c>
       <c r="E173" s="46"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="46">
+        <v>-1.2509999999999999</v>
+      </c>
       <c r="G173" s="46"/>
       <c r="H173" s="46"/>
       <c r="I173" s="46"/>
@@ -11713,7 +11794,9 @@
         <v>20.896999999999998</v>
       </c>
       <c r="E174" s="47"/>
-      <c r="F174" s="47"/>
+      <c r="F174" s="47">
+        <v>12.870999999999999</v>
+      </c>
       <c r="G174" s="47"/>
       <c r="H174" s="47"/>
       <c r="I174" s="47"/>
@@ -11737,7 +11820,7 @@
       </c>
       <c r="F175" s="33">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>86.002999999999972</v>
       </c>
       <c r="G175" s="33">
         <f t="shared" si="71"/>
@@ -11777,7 +11860,9 @@
         <v>-15.518000000000001</v>
       </c>
       <c r="E176" s="46"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="46">
+        <v>-5.1660000000000004</v>
+      </c>
       <c r="G176" s="46"/>
       <c r="H176" s="46"/>
       <c r="I176" s="46"/>
@@ -11801,7 +11886,7 @@
       </c>
       <c r="F177" s="33">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>80.836999999999975</v>
       </c>
       <c r="G177" s="33">
         <f t="shared" si="73"/>
@@ -11841,7 +11926,9 @@
         <v>153.66799999999998</v>
       </c>
       <c r="E178" s="46"/>
-      <c r="F178" s="46"/>
+      <c r="F178" s="46">
+        <v>404.072</v>
+      </c>
       <c r="G178" s="46"/>
       <c r="H178" s="46"/>
       <c r="I178" s="46"/>
@@ -11863,9 +11950,9 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="F179" s="48" t="str">
+      <c r="F179" s="48">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>0.20005593062622495</v>
       </c>
       <c r="G179" s="48" t="str">
         <f t="shared" si="75"/>
@@ -11938,7 +12025,9 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="E182" s="46"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="46">
+        <v>0.75800000000000001</v>
+      </c>
       <c r="G182" s="46"/>
       <c r="H182" s="46"/>
       <c r="I182" s="46"/>
@@ -11958,7 +12047,9 @@
         <v>30.725999999999999</v>
       </c>
       <c r="E183" s="46"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="46">
+        <v>-37.155000000000001</v>
+      </c>
       <c r="G183" s="46"/>
       <c r="H183" s="46"/>
       <c r="I183" s="46"/>
@@ -12066,7 +12157,7 @@
       </c>
       <c r="F189" s="33">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>37.985999999999976</v>
       </c>
       <c r="G189" s="33">
         <f t="shared" si="77"/>
@@ -12106,7 +12197,9 @@
         <v>5.6489999999999991</v>
       </c>
       <c r="E190" s="47"/>
-      <c r="F190" s="47"/>
+      <c r="F190" s="47">
+        <v>7.9669999999999996</v>
+      </c>
       <c r="G190" s="47"/>
       <c r="H190" s="47"/>
       <c r="I190" s="47"/>
@@ -12130,7 +12223,7 @@
       </c>
       <c r="F191" s="45">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>45.952999999999975</v>
       </c>
       <c r="G191" s="45">
         <f t="shared" si="79"/>
@@ -12176,7 +12269,7 @@
       </c>
       <c r="F192" s="85">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>49.605999999999966</v>
       </c>
       <c r="G192" s="85">
         <f t="shared" si="81"/>
@@ -12222,7 +12315,7 @@
       </c>
       <c r="F193" s="85">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>-5.1660000000000004</v>
       </c>
       <c r="G193" s="85">
         <f t="shared" si="83"/>
@@ -12268,7 +12361,7 @@
       </c>
       <c r="F194" s="85">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>44.439999999999969</v>
       </c>
       <c r="G194" s="85">
         <f t="shared" si="85"/>
@@ -12376,7 +12469,7 @@
       </c>
       <c r="F199" s="48">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.10998039953275646</v>
       </c>
       <c r="G199" s="48">
         <f t="shared" si="87"/>
@@ -12695,7 +12788,7 @@
       </c>
       <c r="F202" s="174">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>40056</v>
       </c>
       <c r="G202" s="174">
         <f t="shared" si="88"/>
@@ -12982,7 +13075,7 @@
       </c>
       <c r="F203" s="68">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1264.83</v>
       </c>
       <c r="G203" s="68">
         <f t="shared" si="89"/>
@@ -13028,7 +13121,7 @@
       </c>
       <c r="F204" s="68">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>165.31400000000019</v>
       </c>
       <c r="G204" s="68">
         <f t="shared" si="90"/>
@@ -13074,7 +13167,7 @@
       </c>
       <c r="F205" s="68">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>138.91400000000021</v>
       </c>
       <c r="G205" s="68">
         <f t="shared" si="91"/>
@@ -13120,7 +13213,7 @@
       </c>
       <c r="F206" s="99">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.41532042479632864</v>
       </c>
       <c r="G206" s="99">
         <f t="shared" si="92"/>
@@ -13252,7 +13345,9 @@
         <v>638.6</v>
       </c>
       <c r="E211" s="106"/>
-      <c r="F211" s="106"/>
+      <c r="F211" s="46">
+        <v>1250</v>
+      </c>
       <c r="G211" s="106"/>
       <c r="H211" s="106"/>
       <c r="I211" s="106"/>
@@ -13266,12 +13361,15 @@
         <v>0</v>
       </c>
       <c r="C212" s="13"/>
-      <c r="D212" s="217">
+      <c r="D212" s="46">
         <f>D213+D120</f>
         <v>144.435</v>
       </c>
       <c r="E212" s="106"/>
-      <c r="F212" s="106"/>
+      <c r="F212" s="46">
+        <f>F213+F120</f>
+        <v>142.78100000000001</v>
+      </c>
       <c r="G212" s="106"/>
       <c r="H212" s="106"/>
       <c r="I212" s="106"/>
@@ -13289,7 +13387,9 @@
         <v>133.30000000000001</v>
       </c>
       <c r="E213" s="106"/>
-      <c r="F213" s="106"/>
+      <c r="F213" s="46">
+        <v>113</v>
+      </c>
       <c r="G213" s="106"/>
       <c r="H213" s="106"/>
       <c r="I213" s="106"/>
@@ -13307,7 +13407,9 @@
         <v>0.67</v>
       </c>
       <c r="E214" s="106"/>
-      <c r="F214" s="106"/>
+      <c r="F214" s="218">
+        <v>0.32</v>
+      </c>
       <c r="G214" s="106"/>
       <c r="H214" s="106"/>
       <c r="I214" s="106"/>
@@ -13401,7 +13503,9 @@
         <v>705</v>
       </c>
       <c r="E218" s="106"/>
-      <c r="F218" s="106"/>
+      <c r="F218" s="46">
+        <v>1391</v>
+      </c>
       <c r="G218" s="106"/>
       <c r="H218" s="106"/>
       <c r="I218" s="106"/>
@@ -13419,7 +13523,10 @@
         <v>166.8</v>
       </c>
       <c r="E219" s="106"/>
-      <c r="F219" s="106"/>
+      <c r="F219" s="217">
+        <f>F220+F120</f>
+        <v>170.78100000000001</v>
+      </c>
       <c r="G219" s="106"/>
       <c r="H219" s="106"/>
       <c r="I219" s="106"/>
@@ -13437,7 +13544,9 @@
         <v>155.5</v>
       </c>
       <c r="E220" s="106"/>
-      <c r="F220" s="106"/>
+      <c r="F220" s="46">
+        <v>141</v>
+      </c>
       <c r="G220" s="106"/>
       <c r="H220" s="106"/>
       <c r="I220" s="106"/>
@@ -13455,7 +13564,9 @@
         <v>0.77</v>
       </c>
       <c r="E221" s="106"/>
-      <c r="F221" s="106"/>
+      <c r="F221" s="218">
+        <v>0.38</v>
+      </c>
       <c r="G221" s="106"/>
       <c r="H221" s="106"/>
       <c r="I221" s="106"/>
@@ -13971,7 +14082,7 @@
       </c>
       <c r="F237" s="58">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>3269.2563838999999</v>
       </c>
       <c r="G237" s="58">
         <f t="shared" si="102"/>
@@ -14017,7 +14128,7 @@
       </c>
       <c r="F238" s="58">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2778.5733839</v>
       </c>
       <c r="G238" s="58">
         <f t="shared" si="103"/>
@@ -14093,7 +14204,7 @@
       </c>
       <c r="F241" s="105">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>40056</v>
       </c>
       <c r="G241" s="105">
         <f t="shared" si="104"/>
@@ -14139,7 +14250,7 @@
       </c>
       <c r="F242" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1264.83</v>
       </c>
       <c r="G242" s="115">
         <f t="shared" si="105"/>
@@ -14185,7 +14296,7 @@
       </c>
       <c r="F243" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>165.31400000000019</v>
       </c>
       <c r="G243" s="115">
         <f t="shared" si="105"/>
@@ -14231,7 +14342,7 @@
       </c>
       <c r="F244" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>138.91400000000021</v>
       </c>
       <c r="G244" s="115">
         <f t="shared" si="105"/>
@@ -14277,7 +14388,7 @@
       </c>
       <c r="F245" s="116">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.41532042479632864</v>
       </c>
       <c r="G245" s="116">
         <f t="shared" si="105"/>
@@ -14321,9 +14432,9 @@
         <f t="shared" si="106"/>
         <v>7.8966893862703114E-2</v>
       </c>
-      <c r="F246" s="125" t="str">
+      <c r="F246" s="125">
         <f t="shared" si="106"/>
-        <v/>
+        <v>0.13070056845584008</v>
       </c>
       <c r="G246" s="125" t="str">
         <f t="shared" si="106"/>
@@ -14445,7 +14556,7 @@
       </c>
       <c r="F250" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G250" s="115">
         <f t="shared" si="108"/>
@@ -14491,7 +14602,7 @@
       </c>
       <c r="F251" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>142.78100000000001</v>
       </c>
       <c r="G251" s="115">
         <f t="shared" si="108"/>
@@ -14537,7 +14648,7 @@
       </c>
       <c r="F252" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G252" s="115">
         <f t="shared" si="108"/>
@@ -14583,7 +14694,7 @@
       </c>
       <c r="F253" s="116">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="G253" s="116">
         <f t="shared" si="108"/>
@@ -14627,9 +14738,9 @@
         <f t="shared" si="109"/>
         <v/>
       </c>
-      <c r="F254" s="125" t="str">
+      <c r="F254" s="125">
         <f t="shared" si="109"/>
-        <v/>
+        <v>0.1142248</v>
       </c>
       <c r="G254" s="125" t="str">
         <f t="shared" si="109"/>
@@ -14751,7 +14862,7 @@
       </c>
       <c r="F258" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1391</v>
       </c>
       <c r="G258" s="115">
         <f t="shared" si="111"/>
@@ -14797,7 +14908,7 @@
       </c>
       <c r="F259" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>170.78100000000001</v>
       </c>
       <c r="G259" s="115">
         <f t="shared" si="111"/>
@@ -14843,7 +14954,7 @@
       </c>
       <c r="F260" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G260" s="115">
         <f t="shared" si="111"/>
@@ -14889,7 +15000,7 @@
       </c>
       <c r="F261" s="116">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G261" s="116">
         <f t="shared" si="111"/>
@@ -14933,9 +15044,9 @@
         <f t="shared" si="112"/>
         <v/>
       </c>
-      <c r="F262" s="125" t="str">
+      <c r="F262" s="125">
         <f t="shared" si="112"/>
-        <v/>
+        <v>0.12277570093457944</v>
       </c>
       <c r="G262" s="125" t="str">
         <f t="shared" si="112"/>
@@ -15009,9 +15120,9 @@
         <f t="shared" si="113"/>
         <v>0.42445306234022934</v>
       </c>
-      <c r="F265" s="148" t="str">
+      <c r="F265" s="148">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>2.1967959203213079</v>
       </c>
       <c r="G265" s="148" t="str">
         <f t="shared" si="113"/>
@@ -15055,9 +15166,9 @@
         <f t="shared" si="113"/>
         <v>5.3750760803408397</v>
       </c>
-      <c r="F266" s="149" t="str">
+      <c r="F266" s="149">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>16.807852837025276</v>
       </c>
       <c r="G266" s="149" t="str">
         <f t="shared" si="113"/>
@@ -15101,9 +15212,9 @@
         <f t="shared" si="113"/>
         <v>6.6792720397069241</v>
       </c>
-      <c r="F267" s="149" t="str">
+      <c r="F267" s="149">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>20.002111982233583</v>
       </c>
       <c r="G267" s="149" t="str">
         <f t="shared" si="113"/>
@@ -15147,9 +15258,9 @@
         <f t="shared" si="114"/>
         <v>NM</v>
       </c>
-      <c r="F268" s="149" t="str">
+      <c r="F268" s="149">
         <f t="shared" si="114"/>
-        <v>NM</v>
+        <v>19.021457959536004</v>
       </c>
       <c r="G268" s="149" t="str">
         <f t="shared" si="114"/>
@@ -15223,9 +15334,9 @@
         <f t="shared" si="115"/>
         <v>NM</v>
       </c>
-      <c r="F271" s="148" t="str">
+      <c r="F271" s="148">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>2.2228587071199999</v>
       </c>
       <c r="G271" s="148" t="str">
         <f t="shared" si="115"/>
@@ -15269,9 +15380,9 @@
         <f t="shared" si="115"/>
         <v>NM</v>
       </c>
-      <c r="F272" s="149" t="str">
+      <c r="F272" s="149">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>19.46038607307695</v>
       </c>
       <c r="G272" s="149" t="str">
         <f t="shared" si="115"/>
@@ -15315,9 +15426,9 @@
         <f t="shared" si="115"/>
         <v>NM</v>
       </c>
-      <c r="F273" s="149" t="str">
+      <c r="F273" s="149">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>24.589144990265485</v>
       </c>
       <c r="G273" s="149" t="str">
         <f t="shared" si="115"/>
@@ -15361,9 +15472,9 @@
         <f t="shared" si="116"/>
         <v>NM</v>
       </c>
-      <c r="F274" s="149" t="str">
+      <c r="F274" s="149">
         <f t="shared" si="116"/>
-        <v>NM</v>
+        <v>24.6875</v>
       </c>
       <c r="G274" s="149" t="str">
         <f t="shared" si="116"/>
@@ -15437,9 +15548,9 @@
         <f t="shared" si="117"/>
         <v>NM</v>
       </c>
-      <c r="F277" s="148" t="str">
+      <c r="F277" s="148">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>1.9975365808051762</v>
       </c>
       <c r="G277" s="148" t="str">
         <f t="shared" si="117"/>
@@ -15483,9 +15594,9 @@
         <f t="shared" si="117"/>
         <v>NM</v>
       </c>
-      <c r="F278" s="149" t="str">
+      <c r="F278" s="149">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>16.269803923738589</v>
       </c>
       <c r="G278" s="149" t="str">
         <f t="shared" si="117"/>
@@ -15529,9 +15640,9 @@
         <f t="shared" si="117"/>
         <v>NM</v>
       </c>
-      <c r="F279" s="149" t="str">
+      <c r="F279" s="149">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>19.706194212056737</v>
       </c>
       <c r="G279" s="149" t="str">
         <f t="shared" si="117"/>
@@ -15575,9 +15686,9 @@
         <f t="shared" si="118"/>
         <v>NM</v>
       </c>
-      <c r="F280" s="149" t="str">
+      <c r="F280" s="149">
         <f t="shared" si="118"/>
-        <v>NM</v>
+        <v>20.789473684210527</v>
       </c>
       <c r="G280" s="149" t="str">
         <f t="shared" si="118"/>

--- a/Extreme Networks Transaction Comps.xlsx
+++ b/Extreme Networks Transaction Comps.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -57,7 +57,7 @@
     <definedName name="Products">[2]Array0!$B$5:$C$7</definedName>
     <definedName name="Rev">'[1]Forecast Drivers'!$E$25:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="autoNoTable" iterate="1"/>
 </workbook>
 </file>
 
@@ -586,6 +586,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="G47" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Warrants outstanding, 2012 10-Q</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G71" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Convertible Senior Notes - 2012 Q2 10-K</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D72" authorId="1" shapeId="0">
       <text>
         <r>
@@ -597,6 +625,49 @@
             <family val="2"/>
           </rPr>
           <t>RSUs and RS Awards per Q2 10-Q p20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G112" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Amortization, Stock Based Comp
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G113" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stock based comp, amortization, stock option investigation, restructuring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G211" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>p.44 of Proxy Merger</t>
         </r>
       </text>
     </comment>
@@ -619,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="161">
   <si>
     <t>EBITDA</t>
   </si>
@@ -1104,6 +1175,9 @@
   </si>
   <si>
     <t>3Com 10-Q</t>
+  </si>
+  <si>
+    <t>Blue Coat 10-Q</t>
   </si>
 </sst>
 </file>
@@ -2903,7 +2977,7 @@
     <xf numFmtId="1" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="243" fontId="66" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3326,6 +3400,7 @@
     <xf numFmtId="188" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="188" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="196" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="$" xfId="34"/>
@@ -4288,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IT288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="C190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -4943,7 +5018,9 @@
         <f>((((((394780516-1104582)/10)/10)/10)/10)/10)/10</f>
         <v>393.67593399999998</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="43">
+        <v>42.827804999999998</v>
+      </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
@@ -4969,7 +5046,7 @@
       </c>
       <c r="G34" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42.827804999999998</v>
       </c>
       <c r="H34" s="71" t="e">
         <f t="shared" si="4"/>
@@ -5014,7 +5091,9 @@
       <c r="F37" s="213">
         <v>23.832999999999998</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="213">
+        <v>0.51980599999999999</v>
+      </c>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="79"/>
@@ -5031,7 +5110,9 @@
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
+      <c r="G38" s="213">
+        <v>0.47532499999999994</v>
+      </c>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
       <c r="J38" s="79"/>
@@ -5048,7 +5129,9 @@
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
+      <c r="G39" s="213">
+        <v>0.55383599999999999</v>
+      </c>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="79"/>
@@ -5065,7 +5148,9 @@
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+      <c r="G40" s="213">
+        <v>0.65746499999999997</v>
+      </c>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="79"/>
@@ -5082,7 +5167,9 @@
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+      <c r="G41" s="213">
+        <v>0.46732399999999996</v>
+      </c>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
@@ -5099,7 +5186,9 @@
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+      <c r="G42" s="213">
+        <v>0.49007100000000003</v>
+      </c>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="79"/>
@@ -5116,7 +5205,9 @@
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
       <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
+      <c r="G43" s="213">
+        <v>0.64314199999999999</v>
+      </c>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="79"/>
@@ -5133,7 +5224,9 @@
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
+      <c r="G44" s="213">
+        <v>0.46652000000000005</v>
+      </c>
       <c r="H44" s="79"/>
       <c r="I44" s="79"/>
       <c r="J44" s="79"/>
@@ -5150,7 +5243,9 @@
       <c r="D45" s="79"/>
       <c r="E45" s="79"/>
       <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
+      <c r="G45" s="213">
+        <v>0.29300599999999999</v>
+      </c>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="79"/>
@@ -5167,7 +5262,9 @@
       <c r="D46" s="79"/>
       <c r="E46" s="79"/>
       <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
+      <c r="G46" s="213">
+        <v>8.1798999999999997E-2</v>
+      </c>
       <c r="H46" s="79"/>
       <c r="I46" s="79"/>
       <c r="J46" s="79"/>
@@ -5184,7 +5281,9 @@
       <c r="D47" s="79"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+      <c r="G47" s="79">
+        <v>0.38535600000000003</v>
+      </c>
       <c r="H47" s="79"/>
       <c r="I47" s="79"/>
       <c r="J47" s="79"/>
@@ -5258,7 +5357,7 @@
       </c>
       <c r="G51" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.0336499999999997</v>
       </c>
       <c r="H51" s="24">
         <f t="shared" si="6"/>
@@ -5312,7 +5411,9 @@
       <c r="F53" s="214">
         <v>5.05</v>
       </c>
-      <c r="G53" s="79"/>
+      <c r="G53" s="214">
+        <v>7.46</v>
+      </c>
       <c r="H53" s="79"/>
       <c r="I53" s="79"/>
       <c r="J53" s="79"/>
@@ -5329,7 +5430,9 @@
       <c r="D54" s="79"/>
       <c r="E54" s="79"/>
       <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="G54" s="224">
+        <v>12.55</v>
+      </c>
       <c r="H54" s="79"/>
       <c r="I54" s="79"/>
       <c r="J54" s="79"/>
@@ -5346,7 +5449,9 @@
       <c r="D55" s="79"/>
       <c r="E55" s="79"/>
       <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="G55" s="224">
+        <v>15.92</v>
+      </c>
       <c r="H55" s="79"/>
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
@@ -5363,7 +5468,9 @@
       <c r="D56" s="79"/>
       <c r="E56" s="79"/>
       <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+      <c r="G56" s="224">
+        <v>17.04</v>
+      </c>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="79"/>
@@ -5380,7 +5487,9 @@
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
       <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+      <c r="G57" s="224">
+        <v>20.2</v>
+      </c>
       <c r="H57" s="79"/>
       <c r="I57" s="79"/>
       <c r="J57" s="79"/>
@@ -5397,7 +5506,9 @@
       <c r="D58" s="79"/>
       <c r="E58" s="79"/>
       <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
+      <c r="G58" s="224">
+        <v>23.38</v>
+      </c>
       <c r="H58" s="79"/>
       <c r="I58" s="79"/>
       <c r="J58" s="79"/>
@@ -5414,7 +5525,9 @@
       <c r="D59" s="79"/>
       <c r="E59" s="79"/>
       <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="G59" s="224">
+        <v>24.12</v>
+      </c>
       <c r="H59" s="79"/>
       <c r="I59" s="79"/>
       <c r="J59" s="79"/>
@@ -5431,7 +5544,9 @@
       <c r="D60" s="79"/>
       <c r="E60" s="79"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
+      <c r="G60" s="224">
+        <v>27.72</v>
+      </c>
       <c r="H60" s="79"/>
       <c r="I60" s="79"/>
       <c r="J60" s="79"/>
@@ -5448,7 +5563,9 @@
       <c r="D61" s="79"/>
       <c r="E61" s="79"/>
       <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
+      <c r="G61" s="224">
+        <v>38.75</v>
+      </c>
       <c r="H61" s="79"/>
       <c r="I61" s="79"/>
       <c r="J61" s="79"/>
@@ -5465,7 +5582,9 @@
       <c r="D62" s="79"/>
       <c r="E62" s="79"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
+      <c r="G62" s="224">
+        <v>50.55</v>
+      </c>
       <c r="H62" s="79"/>
       <c r="I62" s="79"/>
       <c r="J62" s="79"/>
@@ -5482,7 +5601,9 @@
       <c r="D63" s="79"/>
       <c r="E63" s="79"/>
       <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
+      <c r="G63" s="79">
+        <v>20.76</v>
+      </c>
       <c r="H63" s="79"/>
       <c r="I63" s="79"/>
       <c r="J63" s="79"/>
@@ -5560,7 +5681,7 @@
       </c>
       <c r="G68" s="81">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>74.273734609999991</v>
       </c>
       <c r="H68" s="81">
         <f t="shared" si="8"/>
@@ -5606,7 +5727,7 @@
       </c>
       <c r="G69" s="81">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.1923250000000003</v>
       </c>
       <c r="H69" s="81">
         <f t="shared" si="9"/>
@@ -5652,7 +5773,7 @@
       </c>
       <c r="G70" s="82">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.3146134691979858</v>
       </c>
       <c r="H70" s="72" t="str">
         <f t="shared" si="10"/>
@@ -5689,7 +5810,9 @@
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="G71" s="25">
+        <v>3.853564</v>
+      </c>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
@@ -5711,7 +5834,9 @@
         <f>((((((1104582+10451425)/10)/10)/10)/10)/10)/10</f>
         <v>11.556006999999999</v>
       </c>
-      <c r="G72" s="212"/>
+      <c r="G72" s="212">
+        <v>1.5654710000000001</v>
+      </c>
       <c r="H72" s="212"/>
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
@@ -5737,7 +5862,7 @@
       </c>
       <c r="G73" s="73">
         <f t="shared" ref="G73:H73" si="12">G34+SUM(G70:G72)</f>
-        <v>0</v>
+        <v>49.561453469197986</v>
       </c>
       <c r="H73" s="73" t="e">
         <f t="shared" si="12"/>
@@ -5811,7 +5936,7 @@
       </c>
       <c r="G76" s="200">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1279.18111404</v>
       </c>
       <c r="H76" s="200" t="str">
         <f t="shared" si="13"/>
@@ -5875,7 +6000,7 @@
       </c>
       <c r="G78" s="201">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1279.18111404</v>
       </c>
       <c r="H78" s="201" t="str">
         <f t="shared" si="15"/>
@@ -5946,7 +6071,9 @@
       <c r="F81" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G81" s="30"/>
+      <c r="G81" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
       <c r="J81" s="30"/>
@@ -5968,7 +6095,9 @@
       <c r="F82" s="30">
         <v>42978</v>
       </c>
-      <c r="G82" s="30"/>
+      <c r="G82" s="30">
+        <v>40786</v>
+      </c>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
       <c r="J82" s="30"/>
@@ -6004,7 +6133,9 @@
       <c r="F84" s="219">
         <v>88</v>
       </c>
-      <c r="G84" s="10"/>
+      <c r="G84" s="219">
+        <v>0</v>
+      </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -6026,7 +6157,9 @@
       <c r="F85" s="219">
         <v>112</v>
       </c>
-      <c r="G85" s="10"/>
+      <c r="G85" s="219">
+        <v>0</v>
+      </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -6045,8 +6178,12 @@
       <c r="E86" s="219">
         <v>0</v>
       </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="G86" s="219">
+        <v>0</v>
+      </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -6065,8 +6202,12 @@
       <c r="E87" s="220">
         <v>0</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="F87" s="29">
+        <v>0</v>
+      </c>
+      <c r="G87" s="220">
+        <v>0</v>
+      </c>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
@@ -6136,7 +6277,10 @@
         <f>(((-(625908+39915+24860))/10)/10)/10</f>
         <v>-690.68299999999999</v>
       </c>
-      <c r="G89" s="29"/>
+      <c r="G89" s="220">
+        <f>-((((361393+1066)/10)/10)/10)</f>
+        <v>-362.459</v>
+      </c>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
@@ -6163,7 +6307,7 @@
       </c>
       <c r="G90" s="27">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-362.459</v>
       </c>
       <c r="H90" s="27">
         <f t="shared" ref="H90:M90" si="19">SUM(H88:H89)</f>
@@ -6223,7 +6367,7 @@
       </c>
       <c r="G92" s="203">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>916.72211403999995</v>
       </c>
       <c r="H92" s="203" t="str">
         <f t="shared" ref="H92:M92" si="21">IFERROR(H78+H90, "NM")</f>
@@ -6318,7 +6462,9 @@
       </c>
       <c r="E97" s="91"/>
       <c r="F97" s="91"/>
-      <c r="G97" s="91"/>
+      <c r="G97" s="91">
+        <v>40663</v>
+      </c>
       <c r="H97" s="91"/>
       <c r="I97" s="91"/>
       <c r="J97" s="91"/>
@@ -6340,7 +6486,9 @@
       <c r="F98" s="42">
         <v>1316.9780000000001</v>
       </c>
-      <c r="G98" s="42"/>
+      <c r="G98" s="42">
+        <v>487.113</v>
+      </c>
       <c r="H98" s="42"/>
       <c r="I98" s="42"/>
       <c r="J98" s="42"/>
@@ -6362,7 +6510,9 @@
       <c r="F99" s="43">
         <v>-565.51400000000001</v>
       </c>
-      <c r="G99" s="43"/>
+      <c r="G99" s="43">
+        <v>-106.48299999999999</v>
+      </c>
       <c r="H99" s="43"/>
       <c r="I99" s="43"/>
       <c r="J99" s="43"/>
@@ -6389,7 +6539,7 @@
       </c>
       <c r="G100" s="33">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>380.63</v>
       </c>
       <c r="H100" s="33">
         <f t="shared" ref="H100:M100" si="23">SUM(H98:H99)</f>
@@ -6430,7 +6580,9 @@
       <c r="F101" s="44">
         <v>-650.77199999999993</v>
       </c>
-      <c r="G101" s="44"/>
+      <c r="G101" s="44">
+        <v>-314.774</v>
+      </c>
       <c r="H101" s="44"/>
       <c r="I101" s="44"/>
       <c r="J101" s="44"/>
@@ -6457,7 +6609,7 @@
       </c>
       <c r="G102" s="45">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>65.855999999999995</v>
       </c>
       <c r="H102" s="45">
         <f t="shared" ref="H102:M102" si="25">SUM(H100:H101)</f>
@@ -6498,7 +6650,10 @@
       <c r="F103" s="46">
         <v>-5.5629999999999997</v>
       </c>
-      <c r="G103" s="46"/>
+      <c r="G103" s="46">
+        <f>(((-911+629)/10)/10)/10</f>
+        <v>-0.28199999999999997</v>
+      </c>
       <c r="H103" s="46"/>
       <c r="I103" s="46"/>
       <c r="J103" s="46"/>
@@ -6520,7 +6675,9 @@
       <c r="F104" s="47">
         <v>52.2</v>
       </c>
-      <c r="G104" s="47"/>
+      <c r="G104" s="47">
+        <v>-0.51800000000000002</v>
+      </c>
       <c r="H104" s="47"/>
       <c r="I104" s="47"/>
       <c r="J104" s="47"/>
@@ -6547,7 +6704,7 @@
       </c>
       <c r="G105" s="33">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>65.055999999999997</v>
       </c>
       <c r="H105" s="33">
         <f t="shared" ref="H105" si="27">SUM(H102:H104)</f>
@@ -6588,7 +6745,9 @@
       <c r="F106" s="46">
         <v>-32.603999999999999</v>
       </c>
-      <c r="G106" s="46"/>
+      <c r="G106" s="46">
+        <v>-18.032</v>
+      </c>
       <c r="H106" s="46"/>
       <c r="I106" s="46"/>
       <c r="J106" s="46"/>
@@ -6615,7 +6774,7 @@
       </c>
       <c r="G107" s="33">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>47.024000000000001</v>
       </c>
       <c r="H107" s="33">
         <f t="shared" ref="H107:M107" si="30">SUM(H105:H106)</f>
@@ -6654,7 +6813,9 @@
       <c r="F108" s="46">
         <v>394.20699999999999</v>
       </c>
-      <c r="G108" s="46"/>
+      <c r="G108" s="46">
+        <v>48.198</v>
+      </c>
       <c r="H108" s="46"/>
       <c r="I108" s="46"/>
       <c r="J108" s="46"/>
@@ -6679,9 +6840,9 @@
         <f t="shared" si="31"/>
         <v>0.29102730291445894</v>
       </c>
-      <c r="G109" s="48" t="str">
+      <c r="G109" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.97564214282750328</v>
       </c>
       <c r="H109" s="48" t="str">
         <f t="shared" ref="H109:M109" si="32">IFERROR(H107/H108, "0")</f>
@@ -6756,7 +6917,10 @@
       <c r="F112" s="46">
         <v>3.028</v>
       </c>
-      <c r="G112" s="46"/>
+      <c r="G112" s="46">
+        <f>(((1558+4691)/10)/10)/10</f>
+        <v>6.2489999999999997</v>
+      </c>
       <c r="H112" s="46"/>
       <c r="I112" s="46"/>
       <c r="J112" s="46"/>
@@ -6782,7 +6946,10 @@
         <f>(((8679+95013-85200+800+2400+1150-2600+29636-3028)/10)/10)/10</f>
         <v>46.85</v>
       </c>
-      <c r="G113" s="46"/>
+      <c r="G113" s="46">
+        <f>(((18553+12063+193-2042-(6249))/10)/10)/10</f>
+        <v>22.518000000000001</v>
+      </c>
       <c r="H113" s="46"/>
       <c r="I113" s="46"/>
       <c r="J113" s="46"/>
@@ -6837,7 +7004,9 @@
       <c r="F116" s="46">
         <v>12.083</v>
       </c>
-      <c r="G116" s="46"/>
+      <c r="G116" s="46">
+        <v>-7.3</v>
+      </c>
       <c r="H116" s="46"/>
       <c r="I116" s="46"/>
       <c r="J116" s="46"/>
@@ -6869,7 +7038,7 @@
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
+      <c r="G118" s="92"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
@@ -6896,7 +7065,7 @@
       </c>
       <c r="G119" s="92">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>94.62299999999999</v>
       </c>
       <c r="H119" s="92">
         <f t="shared" ref="H119:M119" si="34">H102+H112+H113</f>
@@ -6939,7 +7108,10 @@
         <f>(((124794-95013)/10)/10)/10</f>
         <v>29.780999999999999</v>
       </c>
-      <c r="G120" s="47"/>
+      <c r="G120" s="47">
+        <f>12.063+13.651+13.676</f>
+        <v>39.39</v>
+      </c>
       <c r="H120" s="47"/>
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
@@ -6967,7 +7139,7 @@
       </c>
       <c r="G121" s="85">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>134.01299999999998</v>
       </c>
       <c r="H121" s="85">
         <f t="shared" ref="H121:M121" si="36">H119+H120</f>
@@ -7255,7 +7427,7 @@
       </c>
       <c r="G122" s="85">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>93.822999999999993</v>
       </c>
       <c r="H122" s="85">
         <f t="shared" ref="H122:M122" si="38">H105+H112+H113+H114+H115</f>
@@ -7543,7 +7715,7 @@
       </c>
       <c r="G123" s="85">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25.332000000000001</v>
       </c>
       <c r="H123" s="85">
         <f t="shared" ref="H123:M123" si="40">H106+H116</f>
@@ -7831,7 +8003,7 @@
       </c>
       <c r="G124" s="85">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68.490999999999985</v>
       </c>
       <c r="H124" s="85">
         <f t="shared" ref="H124:M124" si="42">H122+H123</f>
@@ -9149,7 +9321,7 @@
       </c>
       <c r="G129" s="48">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.4210340678036431</v>
       </c>
       <c r="H129" s="48">
         <f t="shared" ref="H129:M129" si="44">IFERROR((H124+H127)/(H108+H128),0)</f>
@@ -9944,7 +10116,9 @@
       <c r="F132" s="67">
         <v>40056</v>
       </c>
-      <c r="G132" s="67"/>
+      <c r="G132" s="67">
+        <v>40847</v>
+      </c>
       <c r="H132" s="67"/>
       <c r="I132" s="67"/>
       <c r="J132" s="67"/>
@@ -10205,7 +10379,9 @@
       <c r="F133" s="42">
         <v>290.50200000000001</v>
       </c>
-      <c r="G133" s="42"/>
+      <c r="G133" s="42">
+        <v>223.59</v>
+      </c>
       <c r="H133" s="42"/>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
@@ -10225,7 +10401,9 @@
       <c r="F134" s="43">
         <v>-123.931</v>
       </c>
-      <c r="G134" s="43"/>
+      <c r="G134" s="43">
+        <v>-53.003999999999998</v>
+      </c>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
       <c r="J134" s="43"/>
@@ -10252,7 +10430,7 @@
       </c>
       <c r="G135" s="33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>170.58600000000001</v>
       </c>
       <c r="H135" s="33">
         <f t="shared" ref="H135:M135" si="46">SUM(H133:H134)</f>
@@ -10291,7 +10469,9 @@
       <c r="F136" s="44">
         <v>-163.32999999999998</v>
       </c>
-      <c r="G136" s="44"/>
+      <c r="G136" s="44">
+        <v>-158.45400000000001</v>
+      </c>
       <c r="H136" s="44"/>
       <c r="I136" s="44"/>
       <c r="J136" s="44"/>
@@ -10318,7 +10498,7 @@
       </c>
       <c r="G137" s="45">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>12.132000000000005</v>
       </c>
       <c r="H137" s="45">
         <f t="shared" ref="H137:M137" si="48">SUM(H135:H136)</f>
@@ -10357,7 +10537,10 @@
       <c r="F138" s="46">
         <v>-1.0879999999999999</v>
       </c>
-      <c r="G138" s="46"/>
+      <c r="G138" s="46">
+        <f>(((250-462)/10)/10)/10</f>
+        <v>-0.21200000000000002</v>
+      </c>
       <c r="H138" s="46"/>
       <c r="I138" s="46"/>
       <c r="J138" s="46"/>
@@ -10377,7 +10560,10 @@
       <c r="F139" s="47">
         <v>11.547000000000001</v>
       </c>
-      <c r="G139" s="47"/>
+      <c r="G139" s="47">
+        <f>(((-819)/10)/10)/10</f>
+        <v>-0.81900000000000017</v>
+      </c>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
       <c r="J139" s="47"/>
@@ -10404,7 +10590,7 @@
       </c>
       <c r="G140" s="33">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>11.101000000000004</v>
       </c>
       <c r="H140" s="33">
         <f t="shared" ref="H140:M140" si="50">SUM(H137:H139)</f>
@@ -10443,7 +10629,9 @@
       <c r="F141" s="46">
         <v>-6.2389999999999999</v>
       </c>
-      <c r="G141" s="46"/>
+      <c r="G141" s="46">
+        <v>-3.8200000000000003</v>
+      </c>
       <c r="H141" s="46"/>
       <c r="I141" s="46"/>
       <c r="J141" s="46"/>
@@ -10470,7 +10658,7 @@
       </c>
       <c r="G142" s="33">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.2810000000000041</v>
       </c>
       <c r="H142" s="33">
         <f t="shared" ref="H142:M142" si="52">SUM(H140:H141)</f>
@@ -10509,7 +10697,9 @@
       <c r="F143" s="46">
         <v>396.26599999999996</v>
       </c>
-      <c r="G143" s="46"/>
+      <c r="G143" s="46">
+        <v>47.123999999999995</v>
+      </c>
       <c r="H143" s="46"/>
       <c r="I143" s="46"/>
       <c r="J143" s="46"/>
@@ -10534,9 +10724,9 @@
         <f t="shared" si="53"/>
         <v>1.8828261824128344E-2</v>
       </c>
-      <c r="G144" s="48" t="str">
+      <c r="G144" s="48">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.15450725744843402</v>
       </c>
       <c r="H144" s="48" t="str">
         <f t="shared" ref="H144:M144" si="54">IFERROR(H142/H143, "0")</f>
@@ -10608,7 +10798,9 @@
       <c r="F147" s="46">
         <v>0.54</v>
       </c>
-      <c r="G147" s="46"/>
+      <c r="G147" s="46">
+        <v>3.2269999999999999</v>
+      </c>
       <c r="H147" s="46"/>
       <c r="I147" s="46"/>
       <c r="J147" s="46"/>
@@ -10630,7 +10822,9 @@
       <c r="F148" s="46">
         <v>22.548999999999999</v>
       </c>
-      <c r="G148" s="46"/>
+      <c r="G148" s="46">
+        <v>10.978999999999999</v>
+      </c>
       <c r="H148" s="46"/>
       <c r="I148" s="46"/>
       <c r="J148" s="46"/>
@@ -10682,7 +10876,9 @@
       </c>
       <c r="E151" s="46"/>
       <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
+      <c r="G151" s="46">
+        <v>-3.7719999999999998</v>
+      </c>
       <c r="H151" s="46"/>
       <c r="I151" s="46"/>
       <c r="J151" s="46"/>
@@ -10740,7 +10936,7 @@
       </c>
       <c r="G154" s="33">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>26.338000000000005</v>
       </c>
       <c r="H154" s="33">
         <f t="shared" ref="H154:M154" si="56">H137+H147+H148</f>
@@ -10779,7 +10975,9 @@
       <c r="F155" s="47">
         <v>4.5860000000000003</v>
       </c>
-      <c r="G155" s="47"/>
+      <c r="G155" s="47">
+        <v>7.9189999999999996</v>
+      </c>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="47"/>
@@ -10806,7 +11004,7 @@
       </c>
       <c r="G156" s="85">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>34.257000000000005</v>
       </c>
       <c r="H156" s="85">
         <f t="shared" ref="H156:M156" si="58">H154+H155</f>
@@ -10852,7 +11050,7 @@
       </c>
       <c r="G157" s="85">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>25.307000000000002</v>
       </c>
       <c r="H157" s="85">
         <f t="shared" ref="H157:M157" si="60">H140+H147+H148+H149+H150</f>
@@ -10898,7 +11096,7 @@
       </c>
       <c r="G158" s="85">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-7.5920000000000005</v>
       </c>
       <c r="H158" s="85">
         <f t="shared" ref="H158:M158" si="62">H141+H151</f>
@@ -10944,7 +11142,7 @@
       </c>
       <c r="G159" s="85">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>17.715000000000003</v>
       </c>
       <c r="H159" s="85">
         <f t="shared" ref="H159:M159" si="64">H157+H158</f>
@@ -11052,7 +11250,7 @@
       </c>
       <c r="G164" s="48">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.37592309651133193</v>
       </c>
       <c r="H164" s="48">
         <f t="shared" ref="H164:M164" si="66">IFERROR((H159+H162)/(H143+H163),0)</f>
@@ -11364,7 +11562,9 @@
       <c r="F167" s="67">
         <v>39691</v>
       </c>
-      <c r="G167" s="67"/>
+      <c r="G167" s="67">
+        <v>40482</v>
+      </c>
       <c r="H167" s="67"/>
       <c r="I167" s="67"/>
       <c r="J167" s="67"/>
@@ -11625,7 +11825,9 @@
       <c r="F168" s="42">
         <v>342.65</v>
       </c>
-      <c r="G168" s="42"/>
+      <c r="G168" s="42">
+        <v>243.52699999999999</v>
+      </c>
       <c r="H168" s="42"/>
       <c r="I168" s="42"/>
       <c r="J168" s="42"/>
@@ -11645,7 +11847,9 @@
       <c r="F169" s="43">
         <v>-152.023</v>
       </c>
-      <c r="G169" s="43"/>
+      <c r="G169" s="43">
+        <v>-52.358999999999995</v>
+      </c>
       <c r="H169" s="43"/>
       <c r="I169" s="43"/>
       <c r="J169" s="43"/>
@@ -11672,7 +11876,7 @@
       </c>
       <c r="G170" s="33">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>191.16800000000001</v>
       </c>
       <c r="H170" s="33">
         <f t="shared" ref="H170:M170" si="68">SUM(H168:H169)</f>
@@ -11711,7 +11915,9 @@
       <c r="F171" s="44">
         <v>-116.244</v>
       </c>
-      <c r="G171" s="44"/>
+      <c r="G171" s="44">
+        <v>-155.20099999999999</v>
+      </c>
       <c r="H171" s="44"/>
       <c r="I171" s="44"/>
       <c r="J171" s="44"/>
@@ -11738,7 +11944,7 @@
       </c>
       <c r="G172" s="45">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>35.967000000000013</v>
       </c>
       <c r="H172" s="45">
         <f t="shared" ref="H172:M172" si="70">SUM(H170:H171)</f>
@@ -11777,7 +11983,10 @@
       <c r="F173" s="46">
         <v>-1.2509999999999999</v>
       </c>
-      <c r="G173" s="46"/>
+      <c r="G173" s="46">
+        <f>(((290-447)/10)/10)/10</f>
+        <v>-0.15699999999999997</v>
+      </c>
       <c r="H173" s="46"/>
       <c r="I173" s="46"/>
       <c r="J173" s="46"/>
@@ -11797,7 +12006,9 @@
       <c r="F174" s="47">
         <v>12.870999999999999</v>
       </c>
-      <c r="G174" s="47"/>
+      <c r="G174" s="47">
+        <v>-0.16499999999999998</v>
+      </c>
       <c r="H174" s="47"/>
       <c r="I174" s="47"/>
       <c r="J174" s="47"/>
@@ -11824,7 +12035,7 @@
       </c>
       <c r="G175" s="33">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>35.645000000000017</v>
       </c>
       <c r="H175" s="33">
         <f t="shared" ref="H175:M175" si="72">SUM(H172:H174)</f>
@@ -11863,7 +12074,9 @@
       <c r="F176" s="46">
         <v>-5.1660000000000004</v>
       </c>
-      <c r="G176" s="46"/>
+      <c r="G176" s="46">
+        <v>-9.6870000000000012</v>
+      </c>
       <c r="H176" s="46"/>
       <c r="I176" s="46"/>
       <c r="J176" s="46"/>
@@ -11890,7 +12103,7 @@
       </c>
       <c r="G177" s="33">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>25.958000000000016</v>
       </c>
       <c r="H177" s="33">
         <f t="shared" ref="H177:M177" si="74">SUM(H175:H176)</f>
@@ -11929,7 +12142,9 @@
       <c r="F178" s="46">
         <v>404.072</v>
       </c>
-      <c r="G178" s="46"/>
+      <c r="G178" s="46">
+        <v>47.593999999999994</v>
+      </c>
       <c r="H178" s="46"/>
       <c r="I178" s="46"/>
       <c r="J178" s="46"/>
@@ -11954,9 +12169,9 @@
         <f t="shared" si="75"/>
         <v>0.20005593062622495</v>
       </c>
-      <c r="G179" s="48" t="str">
+      <c r="G179" s="48">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>0.54540488296844181</v>
       </c>
       <c r="H179" s="48" t="str">
         <f t="shared" ref="H179:M179" si="76">IFERROR(H177/H178, "0")</f>
@@ -12028,7 +12243,9 @@
       <c r="F182" s="46">
         <v>0.75800000000000001</v>
       </c>
-      <c r="G182" s="46"/>
+      <c r="G182" s="46">
+        <v>3.1230000000000002</v>
+      </c>
       <c r="H182" s="46"/>
       <c r="I182" s="46"/>
       <c r="J182" s="46"/>
@@ -12050,7 +12267,9 @@
       <c r="F183" s="46">
         <v>-37.155000000000001</v>
       </c>
-      <c r="G183" s="46"/>
+      <c r="G183" s="46">
+        <v>12.172000000000001</v>
+      </c>
       <c r="H183" s="46"/>
       <c r="I183" s="46"/>
       <c r="J183" s="46"/>
@@ -12103,7 +12322,9 @@
       </c>
       <c r="E186" s="46"/>
       <c r="F186" s="46"/>
-      <c r="G186" s="46"/>
+      <c r="G186" s="46">
+        <v>-4.069</v>
+      </c>
       <c r="H186" s="46"/>
       <c r="I186" s="46"/>
       <c r="J186" s="46"/>
@@ -12161,7 +12382,7 @@
       </c>
       <c r="G189" s="33">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>51.262000000000015</v>
       </c>
       <c r="H189" s="33">
         <f t="shared" ref="H189:M189" si="78">H172+H182+H183</f>
@@ -12200,7 +12421,9 @@
       <c r="F190" s="47">
         <v>7.9669999999999996</v>
       </c>
-      <c r="G190" s="47"/>
+      <c r="G190" s="47">
+        <v>7.7469999999999999</v>
+      </c>
       <c r="H190" s="47"/>
       <c r="I190" s="47"/>
       <c r="J190" s="47"/>
@@ -12227,7 +12450,7 @@
       </c>
       <c r="G191" s="45">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>59.009000000000015</v>
       </c>
       <c r="H191" s="45">
         <f t="shared" ref="H191:M191" si="80">H189+H190</f>
@@ -12273,7 +12496,7 @@
       </c>
       <c r="G192" s="85">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>50.940000000000012</v>
       </c>
       <c r="H192" s="85">
         <f t="shared" ref="H192:M192" si="82">H175+H182+H183+H184+H185</f>
@@ -12319,7 +12542,7 @@
       </c>
       <c r="G193" s="85">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>-13.756</v>
       </c>
       <c r="H193" s="85">
         <f t="shared" ref="H193:M193" si="84">H176+H186</f>
@@ -12365,7 +12588,7 @@
       </c>
       <c r="G194" s="85">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>37.184000000000012</v>
       </c>
       <c r="H194" s="85">
         <f t="shared" ref="H194:M194" si="86">H192+H193</f>
@@ -12473,7 +12696,7 @@
       </c>
       <c r="G199" s="48">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.78127495062402863</v>
       </c>
       <c r="H199" s="48">
         <f t="shared" si="87"/>
@@ -12792,7 +13015,7 @@
       </c>
       <c r="G202" s="174">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>40847</v>
       </c>
       <c r="H202" s="174">
         <f t="shared" si="88"/>
@@ -13079,7 +13302,7 @@
       </c>
       <c r="G203" s="68">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>467.17599999999999</v>
       </c>
       <c r="H203" s="68">
         <f t="shared" si="89"/>
@@ -13125,7 +13348,7 @@
       </c>
       <c r="G204" s="68">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>109.26099999999997</v>
       </c>
       <c r="H204" s="68">
         <f t="shared" si="90"/>
@@ -13171,7 +13394,7 @@
       </c>
       <c r="G205" s="68">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>69.698999999999984</v>
       </c>
       <c r="H205" s="68">
         <f t="shared" si="91"/>
@@ -13217,7 +13440,7 @@
       </c>
       <c r="G206" s="99">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1.0156822136909462</v>
       </c>
       <c r="H206" s="99">
         <f t="shared" si="92"/>
@@ -13309,7 +13532,7 @@
       </c>
       <c r="G210" s="175">
         <f t="shared" si="93"/>
-        <v>366</v>
+        <v>41029</v>
       </c>
       <c r="H210" s="175">
         <f t="shared" ref="H210:M210" si="94">DATE(YEAR(H97)+1,MONTH(H97),DAY(H97))</f>
@@ -13348,7 +13571,9 @@
       <c r="F211" s="46">
         <v>1250</v>
       </c>
-      <c r="G211" s="106"/>
+      <c r="G211" s="106">
+        <v>458</v>
+      </c>
       <c r="H211" s="106"/>
       <c r="I211" s="106"/>
       <c r="J211" s="106"/>
@@ -13370,7 +13595,9 @@
         <f>F213+F120</f>
         <v>142.78100000000001</v>
       </c>
-      <c r="G212" s="106"/>
+      <c r="G212" s="106">
+        <v>82</v>
+      </c>
       <c r="H212" s="106"/>
       <c r="I212" s="106"/>
       <c r="J212" s="106"/>
@@ -13390,7 +13617,9 @@
       <c r="F213" s="46">
         <v>113</v>
       </c>
-      <c r="G213" s="106"/>
+      <c r="G213" s="106">
+        <v>67</v>
+      </c>
       <c r="H213" s="106"/>
       <c r="I213" s="106"/>
       <c r="J213" s="106"/>
@@ -13410,7 +13639,9 @@
       <c r="F214" s="218">
         <v>0.32</v>
       </c>
-      <c r="G214" s="106"/>
+      <c r="G214" s="106">
+        <v>0.97</v>
+      </c>
       <c r="H214" s="106"/>
       <c r="I214" s="106"/>
       <c r="J214" s="106"/>
@@ -13467,7 +13698,7 @@
       </c>
       <c r="G217" s="175">
         <f t="shared" si="95"/>
-        <v>731</v>
+        <v>41394</v>
       </c>
       <c r="H217" s="175">
         <f t="shared" ref="H217:M217" si="96">DATE(YEAR(H97)+2,MONTH(H97),DAY(H97))</f>
@@ -13506,7 +13737,9 @@
       <c r="F218" s="46">
         <v>1391</v>
       </c>
-      <c r="G218" s="106"/>
+      <c r="G218" s="106">
+        <v>519</v>
+      </c>
       <c r="H218" s="106"/>
       <c r="I218" s="106"/>
       <c r="J218" s="106"/>
@@ -13527,7 +13760,9 @@
         <f>F220+F120</f>
         <v>170.78100000000001</v>
       </c>
-      <c r="G219" s="106"/>
+      <c r="G219" s="106">
+        <v>100</v>
+      </c>
       <c r="H219" s="106"/>
       <c r="I219" s="106"/>
       <c r="J219" s="106"/>
@@ -13547,7 +13782,9 @@
       <c r="F220" s="46">
         <v>141</v>
       </c>
-      <c r="G220" s="106"/>
+      <c r="G220" s="106">
+        <v>86</v>
+      </c>
       <c r="H220" s="106"/>
       <c r="I220" s="106"/>
       <c r="J220" s="106"/>
@@ -13567,7 +13804,9 @@
       <c r="F221" s="218">
         <v>0.38</v>
       </c>
-      <c r="G221" s="106"/>
+      <c r="G221" s="106">
+        <v>1.18</v>
+      </c>
       <c r="H221" s="106"/>
       <c r="I221" s="106"/>
       <c r="J221" s="106"/>
@@ -14086,7 +14325,7 @@
       </c>
       <c r="G237" s="58">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1279.18111404</v>
       </c>
       <c r="H237" s="58" t="str">
         <f t="shared" si="102"/>
@@ -14132,7 +14371,7 @@
       </c>
       <c r="G238" s="58">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>916.72211403999995</v>
       </c>
       <c r="H238" s="58" t="str">
         <f t="shared" si="103"/>
@@ -14208,7 +14447,7 @@
       </c>
       <c r="G241" s="105">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>40847</v>
       </c>
       <c r="H241" s="105">
         <f t="shared" si="104"/>
@@ -14254,7 +14493,7 @@
       </c>
       <c r="G242" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>467.17599999999999</v>
       </c>
       <c r="H242" s="115">
         <f t="shared" si="105"/>
@@ -14300,7 +14539,7 @@
       </c>
       <c r="G243" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>109.26099999999997</v>
       </c>
       <c r="H243" s="115">
         <f t="shared" si="105"/>
@@ -14346,7 +14585,7 @@
       </c>
       <c r="G244" s="115">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>69.698999999999984</v>
       </c>
       <c r="H244" s="115">
         <f t="shared" si="105"/>
@@ -14392,7 +14631,7 @@
       </c>
       <c r="G245" s="116">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1.0156822136909462</v>
       </c>
       <c r="H245" s="116">
         <f t="shared" si="105"/>
@@ -14436,9 +14675,9 @@
         <f t="shared" si="106"/>
         <v>0.13070056845584008</v>
       </c>
-      <c r="G246" s="125" t="str">
+      <c r="G246" s="125">
         <f t="shared" si="106"/>
-        <v/>
+        <v>0.23387545593095529</v>
       </c>
       <c r="H246" s="126" t="str">
         <f t="shared" si="106"/>
@@ -14514,7 +14753,7 @@
       </c>
       <c r="G249" s="105">
         <f t="shared" si="107"/>
-        <v>366</v>
+        <v>41029</v>
       </c>
       <c r="H249" s="105">
         <f t="shared" si="107"/>
@@ -14560,7 +14799,7 @@
       </c>
       <c r="G250" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="H250" s="115">
         <f t="shared" si="108"/>
@@ -14606,7 +14845,7 @@
       </c>
       <c r="G251" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H251" s="115">
         <f t="shared" si="108"/>
@@ -14652,7 +14891,7 @@
       </c>
       <c r="G252" s="115">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H252" s="115">
         <f t="shared" si="108"/>
@@ -14698,7 +14937,7 @@
       </c>
       <c r="G253" s="116">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="H253" s="116">
         <f t="shared" si="108"/>
@@ -14742,9 +14981,9 @@
         <f t="shared" si="109"/>
         <v>0.1142248</v>
       </c>
-      <c r="G254" s="125" t="str">
+      <c r="G254" s="125">
         <f t="shared" si="109"/>
-        <v/>
+        <v>0.17903930131004367</v>
       </c>
       <c r="H254" s="126" t="str">
         <f t="shared" si="109"/>
@@ -14820,7 +15059,7 @@
       </c>
       <c r="G257" s="105">
         <f t="shared" si="110"/>
-        <v>731</v>
+        <v>41394</v>
       </c>
       <c r="H257" s="105">
         <f t="shared" si="110"/>
@@ -14866,7 +15105,7 @@
       </c>
       <c r="G258" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="H258" s="115">
         <f t="shared" si="111"/>
@@ -14912,7 +15151,7 @@
       </c>
       <c r="G259" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H259" s="115">
         <f t="shared" si="111"/>
@@ -14958,7 +15197,7 @@
       </c>
       <c r="G260" s="115">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H260" s="115">
         <f t="shared" si="111"/>
@@ -15004,7 +15243,7 @@
       </c>
       <c r="G261" s="116">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H261" s="116">
         <f t="shared" si="111"/>
@@ -15048,9 +15287,9 @@
         <f t="shared" si="112"/>
         <v>0.12277570093457944</v>
       </c>
-      <c r="G262" s="125" t="str">
+      <c r="G262" s="125">
         <f t="shared" si="112"/>
-        <v/>
+        <v>0.19267822736030829</v>
       </c>
       <c r="H262" s="126" t="str">
         <f t="shared" si="112"/>
@@ -15124,9 +15363,9 @@
         <f t="shared" si="113"/>
         <v>2.1967959203213079</v>
       </c>
-      <c r="G265" s="148" t="str">
+      <c r="G265" s="148">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>1.9622628603352912</v>
       </c>
       <c r="H265" s="148" t="str">
         <f t="shared" si="113"/>
@@ -15170,9 +15409,9 @@
         <f t="shared" si="113"/>
         <v>16.807852837025276</v>
       </c>
-      <c r="G266" s="149" t="str">
+      <c r="G266" s="149">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>8.3902043184667932</v>
       </c>
       <c r="H266" s="149" t="str">
         <f t="shared" si="113"/>
@@ -15216,9 +15455,9 @@
         <f t="shared" si="113"/>
         <v>20.002111982233583</v>
       </c>
-      <c r="G267" s="149" t="str">
+      <c r="G267" s="149">
         <f t="shared" si="113"/>
-        <v>NM</v>
+        <v>13.152586321754978</v>
       </c>
       <c r="H267" s="149" t="str">
         <f t="shared" si="113"/>
@@ -15262,9 +15501,9 @@
         <f t="shared" si="114"/>
         <v>19.021457959536004</v>
       </c>
-      <c r="G268" s="149" t="str">
+      <c r="G268" s="149">
         <f t="shared" si="114"/>
-        <v>NM</v>
+        <v>25.411491559163519</v>
       </c>
       <c r="H268" s="149" t="str">
         <f t="shared" si="114"/>
@@ -15338,9 +15577,9 @@
         <f t="shared" si="115"/>
         <v>2.2228587071199999</v>
       </c>
-      <c r="G271" s="148" t="str">
+      <c r="G271" s="148">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>2.0015766682096068</v>
       </c>
       <c r="H271" s="148" t="str">
         <f t="shared" si="115"/>
@@ -15384,9 +15623,9 @@
         <f t="shared" si="115"/>
         <v>19.46038607307695</v>
       </c>
-      <c r="G272" s="149" t="str">
+      <c r="G272" s="149">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>11.17953797609756</v>
       </c>
       <c r="H272" s="149" t="str">
         <f t="shared" si="115"/>
@@ -15430,9 +15669,9 @@
         <f t="shared" si="115"/>
         <v>24.589144990265485</v>
       </c>
-      <c r="G273" s="149" t="str">
+      <c r="G273" s="149">
         <f t="shared" si="115"/>
-        <v>NM</v>
+        <v>13.682419612537313</v>
       </c>
       <c r="H273" s="149" t="str">
         <f t="shared" si="115"/>
@@ -15476,9 +15715,9 @@
         <f t="shared" si="116"/>
         <v>24.6875</v>
       </c>
-      <c r="G274" s="149" t="str">
+      <c r="G274" s="149">
         <f t="shared" si="116"/>
-        <v>NM</v>
+        <v>26.60824742268041</v>
       </c>
       <c r="H274" s="149" t="str">
         <f t="shared" si="116"/>
@@ -15552,9 +15791,9 @@
         <f t="shared" si="117"/>
         <v>1.9975365808051762</v>
       </c>
-      <c r="G277" s="148" t="str">
+      <c r="G277" s="148">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>1.7663239191522158</v>
       </c>
       <c r="H277" s="148" t="str">
         <f t="shared" si="117"/>
@@ -15598,9 +15837,9 @@
         <f t="shared" si="117"/>
         <v>16.269803923738589</v>
       </c>
-      <c r="G278" s="149" t="str">
+      <c r="G278" s="149">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>9.1672211403999988</v>
       </c>
       <c r="H278" s="149" t="str">
         <f t="shared" si="117"/>
@@ -15644,9 +15883,9 @@
         <f t="shared" si="117"/>
         <v>19.706194212056737</v>
       </c>
-      <c r="G279" s="149" t="str">
+      <c r="G279" s="149">
         <f t="shared" si="117"/>
-        <v>NM</v>
+        <v>10.659559465581395</v>
       </c>
       <c r="H279" s="149" t="str">
         <f t="shared" si="117"/>
@@ -15690,9 +15929,9 @@
         <f t="shared" si="118"/>
         <v>20.789473684210527</v>
       </c>
-      <c r="G280" s="149" t="str">
+      <c r="G280" s="149">
         <f t="shared" si="118"/>
-        <v>NM</v>
+        <v>21.872881355932204</v>
       </c>
       <c r="H280" s="149" t="str">
         <f t="shared" si="118"/>
